--- a/Data/Osteomyelitis_Vertebral_Mortality_Trend.xlsx
+++ b/Data/Osteomyelitis_Vertebral_Mortality_Trend.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ksanaka/Desktop/Research/Osteomyelitis/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{BEECB7BF-A4E4-5447-84AA-46FFDE5781E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5332F85-D86C-1D48-9ECC-2EAB64AB11EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1100" yWindow="820" windowWidth="28040" windowHeight="17120" activeTab="1" xr2:uid="{3A98521B-5B1A-2C49-A74A-3A1100B0E827}"/>
   </bookViews>
@@ -2075,10 +2075,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D41E92D8-E1C4-F34E-BBC5-E2FF12D3FA5E}">
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:D23"/>
+      <selection activeCell="B24" sqref="B24:D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2405,6 +2405,48 @@
         <v>0.4</v>
       </c>
     </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>2021</v>
+      </c>
+      <c r="B24">
+        <v>0.47</v>
+      </c>
+      <c r="C24">
+        <v>0.45</v>
+      </c>
+      <c r="D24">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>2022</v>
+      </c>
+      <c r="B25">
+        <v>0.53</v>
+      </c>
+      <c r="C25">
+        <v>0.51</v>
+      </c>
+      <c r="D25">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>2023</v>
+      </c>
+      <c r="B26">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="C26">
+        <v>0.54</v>
+      </c>
+      <c r="D26">
+        <v>0.59</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
